--- a/filexlsx/data-score-updated.xlsx
+++ b/filexlsx/data-score-updated.xlsx
@@ -493,11 +493,11 @@
         <v>45.45</v>
       </c>
       <c r="E3" t="n">
-        <v>110.9</v>
+        <v>55.45</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -517,11 +517,11 @@
         <v>44.75</v>
       </c>
       <c r="E4" t="n">
-        <v>109.5</v>
+        <v>54.75</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -541,11 +541,11 @@
         <v>69.84999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>159.7</v>
+        <v>79.84999999999999</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
         <v>73.09999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>166.2</v>
+        <v>90.19999999999999</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -589,11 +589,11 @@
         <v>48.25</v>
       </c>
       <c r="E7" t="n">
-        <v>116.5</v>
+        <v>58.25</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -613,7 +613,7 @@
         <v>82.84999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>185.7</v>
+        <v>87.84999999999999</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -637,11 +637,11 @@
         <v>49.4</v>
       </c>
       <c r="E9" t="n">
-        <v>118.8</v>
+        <v>59.4</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -661,11 +661,11 @@
         <v>57.05</v>
       </c>
       <c r="E10" t="n">
-        <v>134.1</v>
+        <v>67.05</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -685,11 +685,11 @@
         <v>48.45</v>
       </c>
       <c r="E11" t="n">
-        <v>116.9</v>
+        <v>58.45</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -709,11 +709,11 @@
         <v>52.9</v>
       </c>
       <c r="E12" t="n">
-        <v>125.8</v>
+        <v>62.9</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -733,11 +733,11 @@
         <v>51.5</v>
       </c>
       <c r="E13" t="n">
-        <v>123</v>
+        <v>61.5</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -757,11 +757,11 @@
         <v>48.7</v>
       </c>
       <c r="E14" t="n">
-        <v>117.4</v>
+        <v>58.7</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -781,11 +781,11 @@
         <v>53.6</v>
       </c>
       <c r="E15" t="n">
-        <v>127.2</v>
+        <v>63.6</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -805,11 +805,11 @@
         <v>67.05</v>
       </c>
       <c r="E16" t="n">
-        <v>154.1</v>
+        <v>77.05</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -829,11 +829,11 @@
         <v>40</v>
       </c>
       <c r="E17" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -853,11 +853,11 @@
         <v>47.55</v>
       </c>
       <c r="E18" t="n">
-        <v>115.1</v>
+        <v>57.55</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -877,11 +877,11 @@
         <v>49.4</v>
       </c>
       <c r="E19" t="n">
-        <v>118.8</v>
+        <v>59.4</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -901,11 +901,11 @@
         <v>49.85</v>
       </c>
       <c r="E20" t="n">
-        <v>119.7</v>
+        <v>59.85</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -925,11 +925,11 @@
         <v>51.95</v>
       </c>
       <c r="E21" t="n">
-        <v>123.9</v>
+        <v>61.95</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -949,11 +949,11 @@
         <v>45.45</v>
       </c>
       <c r="E22" t="n">
-        <v>110.9</v>
+        <v>55.45</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -973,11 +973,11 @@
         <v>33.5</v>
       </c>
       <c r="E23" t="n">
-        <v>87</v>
+        <v>43.5</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -997,11 +997,11 @@
         <v>45.45</v>
       </c>
       <c r="E24" t="n">
-        <v>110.9</v>
+        <v>55.45</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
         <v>20.5</v>
       </c>
       <c r="E25" t="n">
-        <v>61</v>
+        <v>30.5</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1045,11 +1045,11 @@
         <v>45.7</v>
       </c>
       <c r="E26" t="n">
-        <v>111.4</v>
+        <v>55.7</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1069,11 +1069,11 @@
         <v>53.6</v>
       </c>
       <c r="E27" t="n">
-        <v>127.2</v>
+        <v>63.6</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1093,11 +1093,11 @@
         <v>56.15</v>
       </c>
       <c r="E28" t="n">
-        <v>132.3</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
         <v>20.5</v>
       </c>
       <c r="E29" t="n">
-        <v>61</v>
+        <v>30.5</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1141,11 +1141,11 @@
         <v>66.59999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>153.2</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1165,11 +1165,11 @@
         <v>65.65000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>151.3</v>
+        <v>75.65000000000001</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1189,11 +1189,11 @@
         <v>69.84999999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>159.7</v>
+        <v>79.84999999999999</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1213,11 +1213,11 @@
         <v>49.4</v>
       </c>
       <c r="E33" t="n">
-        <v>118.8</v>
+        <v>59.4</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1237,11 +1237,11 @@
         <v>56.15</v>
       </c>
       <c r="E34" t="n">
-        <v>132.3</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1261,11 +1261,11 @@
         <v>30.25</v>
       </c>
       <c r="E35" t="n">
-        <v>80.5</v>
+        <v>40.25</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -1285,11 +1285,11 @@
         <v>66.09999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>152.2</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
